--- a/Test.xlsx
+++ b/Test.xlsx
@@ -12,6 +12,8 @@
     <x:sheet name="Result" sheetId="3" r:id="rId3"/>
     <x:sheet name="Sheet_250222_230816" sheetId="7" r:id="rId7"/>
     <x:sheet name="Sheet_250222_231013" sheetId="8" r:id="rId8"/>
+    <x:sheet name="Sheet_260222_192336" sheetId="9" r:id="rId9"/>
+    <x:sheet name="Sheet_260222_192617" sheetId="10" r:id="rId10"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="122211"/>
@@ -880,4 +882,253 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D8"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E8"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>